--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1975.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1975.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.017*"foreign" + 0.016*"bank" + 0.016*"import" + 0.015*"exchange" + 0.013*"may" + 0.012*"export" + 0.010*"currency" + 0.009*"per" + 0.008*"country" + 0.008*"payment"</t>
-  </si>
-  <si>
-    <t>0.013*"foreign" + 0.012*"exchange" + 0.011*"import" + 0.010*"may" + 0.010*"bank" + 0.009*"currency" + 0.008*"export" + 0.007*"country" + 0.007*"payment" + 0.006*"gold"</t>
-  </si>
-  <si>
-    <t>0.002*"bank" + 0.002*"exchange" + 0.002*"foreign" + 0.001*"import" + 0.001*"payment" + 0.001*"may" + 0.001*"per" + 0.001*"currency" + 0.001*"export" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.016*"import" + 0.016*"bank" + 0.014*"foreign" + 0.013*"exchange" + 0.010*"may" + 0.010*"per" + 0.010*"export" + 0.010*"account" + 0.009*"payment" + 0.009*"currency"</t>
-  </si>
-  <si>
-    <t>0.013*"import" + 0.011*"bank" + 0.008*"foreign" + 0.007*"currency" + 0.007*"export" + 0.007*"exchange" + 0.007*"may" + 0.005*"per" + 0.005*"account" + 0.005*"payment"</t>
+    <t>0.045*"currency" + 0.040*"foreign" + 0.038*"may" + 0.038*"account" + 0.023*"nonresident" + 0.022*"resident" + 0.018*"bank" + 0.018*"fund" + 0.015*"credit" + 0.014*"country"</t>
+  </si>
+  <si>
+    <t>0.049*"export" + 0.025*"import" + 0.024*"require" + 0.019*"certain" + 0.015*"control" + 0.015*"investment" + 0.015*"license" + 0.014*"capital" + 0.012*"approval" + 0.012*"subject"</t>
+  </si>
+  <si>
+    <t>0.043*"per" + 0.038*"rate" + 0.034*"cent" + 0.025*"exchange" + 0.017*"dollar" + 0.015*"year" + 0.010*"tax" + 0.010*"republic" + 0.009*"value" + 0.009*"ing"</t>
+  </si>
+  <si>
+    <t>0.061*"import" + 0.031*"gold" + 0.016*"license" + 0.015*"good" + 0.014*"amount" + 0.014*"person" + 0.013*"may" + 0.013*"travel" + 0.010*"traveler" + 0.009*"coin"</t>
+  </si>
+  <si>
+    <t>0.057*"bank" + 0.030*"payment" + 0.022*"exchange" + 0.019*"central" + 0.018*"must" + 0.015*"foreign" + 0.011*"invisibles" + 0.011*"transaction" + 0.010*"january" + 0.010*"december"</t>
   </si>
 </sst>
 </file>
